--- a/va_facility_data_2025-02-20/Staff Sergeant Alexander W. Conrad Veterans Affairs Health Care Clinic - Facility Data.xlsx"; filename*=UTF-8''Staff%20Sergeant%20Alexander%20W.%20Conrad%20Veterans%20Affairs%20Health%20Care%20Clinic%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Staff Sergeant Alexander W. Conrad Veterans Affairs Health Care Clinic - Facility Data.xlsx"; filename*=UTF-8''Staff%20Sergeant%20Alexander%20W.%20Conrad%20Veterans%20Affairs%20Health%20Care%20Clinic%20-%20Facility%20Data.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Wait Times" sheetId="1" r:id="R5fb8cb49d6bd40e49dd1929d072ec1aa"/>
-    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R2991494744694e62a7fd09be1268292f"/>
-    <x:sheet name="Outpatient Score" sheetId="3" r:id="Ra718062712324e14884b076ee27bbb32"/>
+    <x:sheet name="Wait Times" sheetId="1" r:id="R1cae388d5ef0469ab2de120cfd912342"/>
+    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="Rf71d187f852e4154847e1ee345373d8d"/>
+    <x:sheet name="Outpatient Score" sheetId="3" r:id="R64e9806da45f42fc8d637b1f614f5349"/>
   </x:sheets>
 </x:workbook>
 </file>
